--- a/evaluation_results/Evaluation_Results_DPIM.xlsx
+++ b/evaluation_results/Evaluation_Results_DPIM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max\Desktop\Git\Moe-Miner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max\Desktop\DPIM\evaluation_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19642B74-4696-40D8-9F91-60BED46C92B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1E7607-524E-4327-95B5-0698E8BE9E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="885" windowWidth="29040" windowHeight="15720" xr2:uid="{95A76E93-9B75-4929-9216-C6F37AC0792F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{95A76E93-9B75-4929-9216-C6F37AC0792F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="62">
   <si>
     <t>Event Logs</t>
   </si>
@@ -50,9 +50,6 @@
     <t>DPIM (no Privacy)</t>
   </si>
   <si>
-    <t>DPIM (E=5), n=100</t>
-  </si>
-  <si>
     <t>DPIM (E=3), n=100</t>
   </si>
   <si>
@@ -222,12 +219,18 @@
   </si>
   <si>
     <t>Test Case 16: And-Loop-Loop</t>
+  </si>
+  <si>
+    <t>0,005]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -698,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -733,12 +736,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -760,9 +757,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -799,6 +793,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -820,111 +883,44 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,9 +940,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -984,7 +980,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1090,7 +1086,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1232,7 +1228,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1240,10 +1236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFC6999-1907-4534-880B-414C4457128B}">
-  <dimension ref="A1:AT35"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1253,307 +1250,257 @@
     <col min="3" max="3" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:39" ht="15.75" thickBot="1">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="42" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="42" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="41" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="41" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="41" t="s">
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="49"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75" thickBot="1">
+      <c r="A2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="45"/>
+      <c r="B2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="44"/>
+      <c r="S2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="44"/>
+      <c r="U2" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="42"/>
+      <c r="W2" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="44"/>
     </row>
-    <row r="2" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="3" spans="1:39" ht="15.75" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="55"/>
-      <c r="W2" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT2" s="54"/>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" ht="15.75" thickBot="1">
+    <row r="4" spans="1:39" ht="15.75" thickBot="1">
       <c r="A4" s="5">
         <v>2011</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="72">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
       <c r="E4" s="7">
@@ -1586,50 +1533,43 @@
       <c r="N4" s="11">
         <v>0.50660000000000005</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="71"/>
     </row>
-    <row r="5" spans="1:46" ht="15.75" thickBot="1">
+    <row r="5" spans="1:39" ht="15.75" thickBot="1">
       <c r="A5" s="5">
         <v>2012</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="73">
+      <c r="D5" s="38">
         <v>1</v>
       </c>
       <c r="E5" s="7">
@@ -1662,50 +1602,43 @@
       <c r="N5" s="11">
         <v>0.84689999999999999</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="71"/>
     </row>
-    <row r="6" spans="1:46" ht="15.75" thickBot="1">
+    <row r="6" spans="1:39" ht="15.75" thickBot="1">
       <c r="A6" s="5">
         <v>2013</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="73">
+      <c r="D6" s="38">
         <v>1</v>
       </c>
       <c r="E6" s="7">
@@ -1738,114 +1671,91 @@
       <c r="N6" s="11">
         <v>0.85429999999999995</v>
       </c>
-      <c r="O6" s="7">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0.88370000000000004</v>
-      </c>
-      <c r="R6" s="7">
-        <v>5.9900000000000002E-2</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0.72789999999999999</v>
-      </c>
-      <c r="T6" s="7">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0.83620000000000005</v>
-      </c>
-      <c r="V6" s="8">
-        <v>6.0900000000000003E-2</v>
-      </c>
-      <c r="W6" s="7">
+      <c r="O6" s="63">
         <v>0.99070000000000003</v>
       </c>
-      <c r="X6" s="7">
+      <c r="P6" s="63">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Q6" s="63">
         <v>0.88039999999999996</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="R6" s="63">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="S6" s="63">
         <v>0.72670000000000001</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="T6" s="63">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="U6" s="63">
         <v>0.8357</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="V6" s="64">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="W6" s="63">
         <v>0.98760000000000003</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="X6" s="63">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="AG6" s="7">
+      <c r="Y6" s="63">
         <v>0.88449999999999995</v>
       </c>
-      <c r="AH6" s="7">
+      <c r="Z6" s="63">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="AI6" s="7">
+      <c r="AA6" s="63">
         <v>0.73440000000000005</v>
       </c>
-      <c r="AJ6" s="7">
+      <c r="AB6" s="63">
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="AK6" s="7">
+      <c r="AC6" s="63">
         <v>0.83899999999999997</v>
       </c>
-      <c r="AL6" s="8">
+      <c r="AD6" s="64">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="AM6" s="7">
+      <c r="AE6" s="63">
         <v>0.9506</v>
       </c>
-      <c r="AN6" s="7">
+      <c r="AF6" s="63">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="AO6" s="7">
+      <c r="AG6" s="63">
         <v>0.90569999999999995</v>
       </c>
-      <c r="AP6" s="7">
+      <c r="AH6" s="63">
         <v>0.1193</v>
       </c>
-      <c r="AQ6" s="7">
+      <c r="AI6" s="63">
         <v>0.71760000000000002</v>
       </c>
-      <c r="AR6" s="7">
+      <c r="AJ6" s="63">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="AS6" s="7">
+      <c r="AK6" s="63">
         <v>0.80489999999999995</v>
       </c>
-      <c r="AT6" s="7">
+      <c r="AL6" s="63">
         <v>9.3100000000000002E-2</v>
       </c>
+      <c r="AM6" s="71"/>
     </row>
-    <row r="7" spans="1:46" ht="15.75" thickBot="1">
+    <row r="7" spans="1:39" ht="15.75" thickBot="1">
       <c r="A7" s="5">
         <v>2013</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="73">
+        <v>24</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
       <c r="E7" s="7">
@@ -1878,114 +1788,91 @@
       <c r="N7" s="11">
         <v>0.90600000000000003</v>
       </c>
-      <c r="O7" s="7">
-        <v>0.99139999999999995</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0.1187</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0.72529999999999994</v>
-      </c>
-      <c r="T7" s="7">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0.8982</v>
-      </c>
-      <c r="V7" s="8">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="W7" s="7">
+      <c r="O7" s="63">
         <v>0.99039999999999995</v>
       </c>
-      <c r="X7" s="7">
+      <c r="P7" s="63">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Q7" s="63">
         <v>0.82879999999999998</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="R7" s="63">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="S7" s="63">
         <v>0.72770000000000001</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="T7" s="63">
         <v>0.05</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="U7" s="63">
         <v>0.90010000000000001</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="V7" s="64">
         <v>5.04E-2</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="W7" s="63">
         <v>0.98460000000000003</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="X7" s="63">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="Y7" s="63">
         <v>0.83379999999999999</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="Z7" s="63">
         <v>9.9099999999999994E-2</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="AA7" s="63">
         <v>0.73450000000000004</v>
       </c>
-      <c r="AJ7" s="7">
+      <c r="AB7" s="63">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="AK7" s="7">
+      <c r="AC7" s="63">
         <v>0.90690000000000004</v>
       </c>
-      <c r="AL7" s="8">
+      <c r="AD7" s="64">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="AM7" s="7">
+      <c r="AE7" s="63">
         <v>0.98440000000000005</v>
       </c>
-      <c r="AN7" s="7">
+      <c r="AF7" s="63">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="AO7" s="7">
+      <c r="AG7" s="63">
         <v>0.79149999999999998</v>
       </c>
-      <c r="AP7" s="7">
+      <c r="AH7" s="63">
         <v>0.14169999999999999</v>
       </c>
-      <c r="AQ7" s="7">
+      <c r="AI7" s="63">
         <v>0.73109999999999997</v>
       </c>
-      <c r="AR7" s="7">
+      <c r="AJ7" s="63">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="AS7" s="7">
+      <c r="AK7" s="63">
         <v>0.90159999999999996</v>
       </c>
-      <c r="AT7" s="7">
+      <c r="AL7" s="63">
         <v>4.8500000000000001E-2</v>
       </c>
+      <c r="AM7" s="71"/>
     </row>
-    <row r="8" spans="1:46" ht="15.75" thickBot="1">
+    <row r="8" spans="1:39" ht="15.75" thickBot="1">
       <c r="A8" s="5">
         <v>2013</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="73">
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="38">
         <v>1</v>
       </c>
       <c r="E8" s="7">
@@ -2006,7 +1893,7 @@
       <c r="J8" s="8">
         <v>0.85</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="13">
         <v>1</v>
       </c>
       <c r="L8" s="10">
@@ -2018,114 +1905,91 @@
       <c r="N8" s="11">
         <v>0.93810000000000004</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="63">
         <v>0.97889999999999999</v>
       </c>
-      <c r="P8" s="7">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="R8" s="7">
-        <v>4.3400000000000001E-2</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0.76080000000000003</v>
-      </c>
-      <c r="T8" s="7">
-        <v>4.3299999999999998E-2</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="V8" s="8">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0.97889999999999999</v>
-      </c>
-      <c r="X8" s="7">
+      <c r="P8" s="63">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Q8" s="63">
         <v>0.94879999999999998</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="R8" s="63">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="S8" s="63">
         <v>0.76429999999999998</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="T8" s="63">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="U8" s="63">
         <v>0.94259999999999999</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="V8" s="64">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="W8" s="63">
         <v>0.98319999999999996</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="X8" s="63">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="Y8" s="63">
         <v>0.94550000000000001</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="Z8" s="63">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AA8" s="63">
         <v>0.77480000000000004</v>
       </c>
-      <c r="AJ8" s="7">
+      <c r="AB8" s="63">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="AK8" s="7">
+      <c r="AC8" s="63">
         <v>0.94020000000000004</v>
       </c>
-      <c r="AL8" s="8">
+      <c r="AD8" s="64">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AE8" s="65">
         <v>0.88360000000000005</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AF8" s="63">
         <v>0.1089</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AG8" s="63">
         <v>0.88739999999999997</v>
       </c>
-      <c r="AP8" s="7">
+      <c r="AH8" s="63">
         <v>0.23080000000000001</v>
       </c>
-      <c r="AQ8" s="7">
+      <c r="AI8" s="63">
         <v>0.79320000000000002</v>
       </c>
-      <c r="AR8" s="7">
+      <c r="AJ8" s="63">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="AS8" s="7">
+      <c r="AK8" s="63">
         <v>0.89</v>
       </c>
-      <c r="AT8" s="7">
+      <c r="AL8" s="63">
         <v>8.5599999999999996E-2</v>
       </c>
+      <c r="AM8" s="71"/>
     </row>
-    <row r="9" spans="1:46" ht="15.75" thickBot="1">
+    <row r="9" spans="1:39" ht="15.75" thickBot="1">
       <c r="A9" s="5">
         <v>2015</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="73">
+      <c r="D9" s="38">
         <v>1</v>
       </c>
       <c r="E9" s="5">
@@ -2137,10 +2001,10 @@
       <c r="G9" s="8">
         <v>0.65849999999999997</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>4805</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <v>4835</v>
       </c>
       <c r="J9" s="8">
@@ -2158,50 +2022,91 @@
       <c r="N9" s="11">
         <v>0.64149999999999996</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
+      <c r="O9" s="72">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="P9" s="72">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="Q9" s="72">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="R9" s="72">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="S9" s="72">
+        <v>0.36680000000000001</v>
+      </c>
+      <c r="T9" s="72">
+        <v>4.3E-3</v>
+      </c>
+      <c r="U9" s="72">
+        <v>0.63580000000000003</v>
+      </c>
+      <c r="V9" s="73">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="W9" s="72">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="X9" s="72">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="Y9" s="72">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="Z9" s="72">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="AA9" s="72">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="AB9" s="72">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="AC9" s="72">
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="AD9" s="73">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="AE9" s="72">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="AF9" s="72">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="AG9" s="72">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="AH9" s="72">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="AI9" s="72">
+        <v>0.36430000000000001</v>
+      </c>
+      <c r="AJ9" s="72">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="AK9" s="72">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="AL9" s="72">
+        <v>6.6E-3</v>
+      </c>
+      <c r="AM9" s="71"/>
     </row>
-    <row r="10" spans="1:46" ht="15.75" thickBot="1">
+    <row r="10" spans="1:39" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>2015</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="73">
+        <v>28</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="38">
         <v>1</v>
       </c>
       <c r="E10" s="5">
@@ -2213,16 +2118,16 @@
       <c r="G10" s="8">
         <v>0.63270000000000004</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>4885</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <v>4915</v>
       </c>
       <c r="J10" s="8">
         <v>0.95</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <v>1</v>
       </c>
       <c r="L10" s="10">
@@ -2234,50 +2139,91 @@
       <c r="N10" s="11">
         <v>0.61980000000000002</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12"/>
+      <c r="O10" s="72">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="P10" s="72">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="Q10" s="72">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="R10" s="72">
+        <v>1.6E-2</v>
+      </c>
+      <c r="S10" s="72">
+        <v>0.3619</v>
+      </c>
+      <c r="T10" s="72">
+        <v>8.6E-3</v>
+      </c>
+      <c r="U10" s="72">
+        <v>0.62709999999999999</v>
+      </c>
+      <c r="V10" s="73">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W10" s="72">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="X10" s="72">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="Y10" s="72">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Z10" s="72">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AA10" s="72">
+        <v>0.36459999999999998</v>
+      </c>
+      <c r="AB10" s="72">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="AC10" s="72">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="AD10" s="73">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="AE10" s="72">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="AF10" s="72">
+        <v>1.15E-2</v>
+      </c>
+      <c r="AG10" s="72">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="AH10" s="72">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AI10" s="72">
+        <v>0.36380000000000001</v>
+      </c>
+      <c r="AJ10" s="72">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AK10" s="72">
+        <v>0.62419999999999998</v>
+      </c>
+      <c r="AL10" s="72">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="AM10" s="71"/>
     </row>
-    <row r="11" spans="1:46" ht="15.75" thickBot="1">
+    <row r="11" spans="1:39" ht="15.75" thickBot="1">
       <c r="A11" s="5">
         <v>2015</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="74">
+        <v>28</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="39">
         <v>1</v>
       </c>
       <c r="E11" s="5">
@@ -2286,19 +2232,19 @@
       <c r="F11" s="5">
         <v>0.35360000000000003</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="15">
         <v>0.67649999999999999</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>5020</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="14">
         <v>5050</v>
       </c>
       <c r="J11" s="8">
         <v>0.95</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <v>1</v>
       </c>
       <c r="L11" s="10">
@@ -2310,50 +2256,91 @@
       <c r="N11" s="11">
         <v>0.67169999999999996</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
+      <c r="O11" s="72">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="P11" s="72">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q11" s="72">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="R11" s="72">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="S11" s="72">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="T11" s="72">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="U11" s="72">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="V11" s="73">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="W11" s="72">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="X11" s="72">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="Y11" s="72">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="Z11" s="72">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="AA11" s="72">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="AB11" s="72">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AC11" s="72">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="AD11" s="73">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="AE11" s="72">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="AF11" s="72">
+        <v>0.01</v>
+      </c>
+      <c r="AG11" s="72">
+        <v>3.32E-2</v>
+      </c>
+      <c r="AH11" s="72">
+        <v>3.78E-2</v>
+      </c>
+      <c r="AI11" s="72">
+        <v>0.35820000000000002</v>
+      </c>
+      <c r="AJ11" s="72">
+        <v>1E-4</v>
+      </c>
+      <c r="AK11" s="72">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="AL11" s="72">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="AM11" s="71"/>
     </row>
-    <row r="12" spans="1:46" ht="15.75" thickBot="1">
+    <row r="12" spans="1:39" ht="15.75" thickBot="1">
       <c r="A12" s="5">
         <v>2015</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="73">
+        <v>28</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="38">
         <v>1</v>
       </c>
       <c r="E12" s="5">
@@ -2365,10 +2352,10 @@
       <c r="G12" s="8">
         <v>0.66080000000000005</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <v>3650</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="14">
         <v>3680</v>
       </c>
       <c r="J12" s="8">
@@ -2386,50 +2373,91 @@
       <c r="N12" s="11">
         <v>0.62119999999999997</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
+      <c r="O12" s="72">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="P12" s="72">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="Q12" s="72">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="R12" s="72">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="S12" s="72">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="T12" s="72">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="U12" s="72">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="V12" s="73">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W12" s="72">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="X12" s="72">
+        <v>1.83E-2</v>
+      </c>
+      <c r="Y12" s="72">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="Z12" s="72">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="AA12" s="72">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="AB12" s="72">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="AC12" s="72">
+        <v>0.65</v>
+      </c>
+      <c r="AD12" s="73">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AE12" s="72">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="AF12" s="72">
+        <v>3.39E-2</v>
+      </c>
+      <c r="AG12" s="72">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="AH12" s="72">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="AI12" s="72">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="AJ12" s="72">
+        <v>6.6E-3</v>
+      </c>
+      <c r="AK12" s="72">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="AL12" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM12" s="71"/>
     </row>
-    <row r="13" spans="1:46" ht="15.75" thickBot="1">
+    <row r="13" spans="1:39" ht="15.75" thickBot="1">
       <c r="A13" s="5">
         <v>2015</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="73">
+        <v>28</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="38">
         <v>1</v>
       </c>
       <c r="E13" s="5">
@@ -2441,16 +2469,16 @@
       <c r="G13" s="8">
         <v>0.66080000000000005</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>4960</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <v>4990</v>
       </c>
       <c r="J13" s="8">
         <v>0.95</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="13">
         <v>1</v>
       </c>
       <c r="L13" s="10">
@@ -2462,50 +2490,91 @@
       <c r="N13" s="11">
         <v>0.66359999999999997</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
+      <c r="O13" s="72">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="P13" s="72">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Q13" s="72">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="R13" s="72">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="S13" s="72">
+        <v>0.38240000000000002</v>
+      </c>
+      <c r="T13" s="72">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="U13" s="72">
+        <v>0.64829999999999999</v>
+      </c>
+      <c r="V13" s="73">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="W13" s="72">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="X13" s="72">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="Y13" s="72">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="Z13" s="72">
+        <v>0.1249</v>
+      </c>
+      <c r="AA13" s="72">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="AB13" s="72">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="AC13" s="72">
+        <v>0.6462</v>
+      </c>
+      <c r="AD13" s="73">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="AE13" s="72">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="AF13" s="72">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="AG13" s="72">
+        <v>0.1356</v>
+      </c>
+      <c r="AH13" s="72">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AI13" s="72">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="AJ13" s="72">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AK13" s="72">
+        <v>0.6452</v>
+      </c>
+      <c r="AL13" s="72">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="AM13" s="71"/>
     </row>
-    <row r="14" spans="1:46" ht="15.75" thickBot="1">
+    <row r="14" spans="1:39" ht="15.75" thickBot="1">
       <c r="A14" s="5">
         <v>2017</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="73">
+        <v>34</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="38">
         <v>1</v>
       </c>
       <c r="E14" s="7">
@@ -2517,16 +2586,16 @@
       <c r="G14" s="8">
         <v>0.90610000000000002</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="16">
         <v>175</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="16">
         <v>205</v>
       </c>
       <c r="J14" s="8">
         <v>0.95</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="13">
         <v>1</v>
       </c>
       <c r="L14" s="10">
@@ -2538,50 +2607,91 @@
       <c r="N14" s="11">
         <v>0.84019999999999995</v>
       </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
+      <c r="O14" s="72">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="P14" s="72">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="Q14" s="72">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="R14" s="72">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="S14" s="72">
+        <v>0.52580000000000005</v>
+      </c>
+      <c r="T14" s="72">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="U14" s="72">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="V14" s="73">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="W14" s="72">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="X14" s="72">
+        <v>8.6E-3</v>
+      </c>
+      <c r="Y14" s="72">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="Z14" s="72">
+        <v>7.51E-2</v>
+      </c>
+      <c r="AA14" s="72">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="AB14" s="72">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AC14" s="72">
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="AD14" s="73">
+        <v>2.87E-2</v>
+      </c>
+      <c r="AE14" s="72">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="AF14" s="72">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AG14" s="72">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="AH14" s="72">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AI14" s="72">
+        <v>0.5181</v>
+      </c>
+      <c r="AJ14" s="72">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AK14" s="72">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="AL14" s="72">
+        <v>2.92E-2</v>
+      </c>
+      <c r="AM14" s="71"/>
     </row>
-    <row r="15" spans="1:46" ht="15.75" thickBot="1">
+    <row r="15" spans="1:39" ht="15.75" thickBot="1">
       <c r="A15" s="5">
         <v>2017</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="73">
+      <c r="D15" s="38">
         <v>1</v>
       </c>
       <c r="E15" s="7">
@@ -2593,10 +2703,10 @@
       <c r="G15" s="8">
         <v>0.89929999999999999</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <v>120</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="16">
         <v>150</v>
       </c>
       <c r="J15" s="8">
@@ -2614,266 +2724,229 @@
       <c r="N15" s="11">
         <v>0.82620000000000005</v>
       </c>
-      <c r="O15" s="19">
-        <v>0.99319999999999997</v>
-      </c>
-      <c r="P15" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>0.23530000000000001</v>
-      </c>
-      <c r="R15" s="19">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="S15" s="19">
-        <v>0.56410000000000005</v>
-      </c>
-      <c r="T15" s="19">
-        <v>4.7399999999999998E-2</v>
-      </c>
-      <c r="U15" s="19">
-        <v>0.87809999999999999</v>
-      </c>
-      <c r="V15" s="20">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="W15" s="19">
+      <c r="O15" s="66">
         <v>0.99239999999999995</v>
       </c>
-      <c r="X15" s="19">
+      <c r="P15" s="66">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="Y15" s="19">
+      <c r="Q15" s="66">
         <v>0.22919999999999999</v>
       </c>
-      <c r="Z15" s="19">
+      <c r="R15" s="66">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="AA15" s="19">
+      <c r="S15" s="66">
         <v>0.56789999999999996</v>
       </c>
-      <c r="AB15" s="19">
+      <c r="T15" s="66">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="AC15" s="19">
+      <c r="U15" s="66">
         <v>0.87670000000000003</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="V15" s="67">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AE15" s="19">
+      <c r="W15" s="66">
         <v>0.98519999999999996</v>
       </c>
-      <c r="AF15" s="19">
+      <c r="X15" s="66">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="AG15" s="19">
+      <c r="Y15" s="66">
         <v>0.22700000000000001</v>
       </c>
-      <c r="AH15" s="19">
+      <c r="Z15" s="66">
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="AI15" s="19">
+      <c r="AA15" s="66">
         <v>0.56530000000000002</v>
       </c>
-      <c r="AJ15" s="19">
+      <c r="AB15" s="66">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="AK15" s="19">
+      <c r="AC15" s="66">
         <v>0.8639</v>
       </c>
-      <c r="AL15" s="21">
+      <c r="AD15" s="68">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="AM15" s="19">
+      <c r="AE15" s="66">
         <v>0.93989999999999996</v>
       </c>
-      <c r="AN15" s="19">
+      <c r="AF15" s="66">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="AO15" s="19">
+      <c r="AG15" s="66">
         <v>0.31950000000000001</v>
       </c>
-      <c r="AP15" s="19">
+      <c r="AH15" s="66">
         <v>0.19570000000000001</v>
       </c>
-      <c r="AQ15" s="19">
+      <c r="AI15" s="66">
         <v>0.56779999999999997</v>
       </c>
-      <c r="AR15" s="19">
+      <c r="AJ15" s="66">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="AS15" s="19">
+      <c r="AK15" s="66">
         <v>0.84699999999999998</v>
       </c>
-      <c r="AT15" s="19">
+      <c r="AL15" s="66">
         <v>5.8400000000000001E-2</v>
       </c>
+      <c r="AM15" s="71"/>
     </row>
-    <row r="16" spans="1:46" s="64" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A16" s="56">
+    <row r="16" spans="1:39" ht="15.75" thickBot="1">
+      <c r="A16" s="7">
         <v>2018</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="75">
-        <v>1</v>
-      </c>
-      <c r="E16" s="56">
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="38">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="7">
         <v>0.45</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="8">
         <v>0.95889999999999997</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="9">
         <v>605</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="9">
         <v>635</v>
       </c>
       <c r="J16" s="8">
         <v>0.95</v>
       </c>
-      <c r="K16" s="61">
-        <v>1</v>
-      </c>
-      <c r="L16" s="61">
+      <c r="K16" s="31">
+        <v>1</v>
+      </c>
+      <c r="L16" s="31">
         <v>4.7600000000000003E-2</v>
       </c>
-      <c r="M16" s="61">
+      <c r="M16" s="31">
         <v>0.52990000000000004</v>
       </c>
-      <c r="N16" s="62">
+      <c r="N16" s="32">
         <v>0.91579999999999995</v>
       </c>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="63"/>
-      <c r="AN16" s="63"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="63"/>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="63"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="71"/>
     </row>
-    <row r="17" spans="1:46" s="64" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A17" s="56">
+    <row r="17" spans="1:39" ht="15.75" thickBot="1">
+      <c r="A17" s="7">
         <v>2019</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="75">
-        <v>1</v>
-      </c>
-      <c r="E17" s="56">
+      <c r="D17" s="38">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
         <v>0.24610000000000001</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="7">
         <v>0.48070000000000002</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="8">
         <v>0.89680000000000004</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="9">
         <v>525</v>
       </c>
-      <c r="I17" s="59">
+      <c r="I17" s="9">
         <v>555</v>
       </c>
       <c r="J17" s="8">
         <v>0.95</v>
       </c>
-      <c r="K17" s="65">
-        <v>1</v>
-      </c>
-      <c r="L17" s="65">
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10">
         <v>0.2422</v>
       </c>
-      <c r="M17" s="65">
+      <c r="M17" s="10">
         <v>0.45</v>
       </c>
-      <c r="N17" s="66">
+      <c r="N17" s="11">
         <v>0.89900000000000002</v>
       </c>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="60"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="63"/>
-      <c r="AO17" s="63"/>
-      <c r="AP17" s="63"/>
-      <c r="AQ17" s="63"/>
-      <c r="AR17" s="63"/>
-      <c r="AS17" s="63"/>
-      <c r="AT17" s="63"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="69"/>
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="71"/>
     </row>
-    <row r="18" spans="1:46" ht="15.75" thickBot="1">
+    <row r="18" spans="1:39" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>2020</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="73">
+      <c r="D18" s="38">
         <v>1</v>
       </c>
       <c r="E18" s="7">
@@ -2885,16 +2958,16 @@
       <c r="G18" s="8">
         <v>0.86109999999999998</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="16">
         <v>30</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <v>60</v>
       </c>
       <c r="J18" s="8">
         <v>0.95</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="13">
         <v>1</v>
       </c>
       <c r="L18" s="10">
@@ -2906,114 +2979,90 @@
       <c r="N18" s="11">
         <v>0.78449999999999998</v>
       </c>
-      <c r="O18" s="19">
-        <v>0.99660000000000004</v>
-      </c>
-      <c r="P18" s="19">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>0.21440000000000001</v>
-      </c>
-      <c r="R18" s="19">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="S18" s="19">
-        <v>0.55969999999999998</v>
-      </c>
-      <c r="T18" s="19">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="U18" s="19">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="V18" s="20">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="W18" s="19">
+      <c r="O18" s="17">
         <v>0.99550000000000005</v>
       </c>
-      <c r="X18" s="19">
+      <c r="P18" s="17">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="Y18" s="19">
+      <c r="Q18" s="17">
         <v>0.2177</v>
       </c>
-      <c r="Z18" s="19">
+      <c r="R18" s="17">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="AA18" s="19">
+      <c r="S18" s="17">
         <v>0.56830000000000003</v>
       </c>
-      <c r="AB18" s="19">
+      <c r="T18" s="17">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="AC18" s="19">
+      <c r="U18" s="17">
         <v>0.79559999999999997</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="V18" s="18">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AE18" s="19">
+      <c r="W18" s="17">
         <v>0.99760000000000004</v>
       </c>
-      <c r="AF18" s="19">
+      <c r="X18" s="17">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="AG18" s="19">
+      <c r="Y18" s="17">
         <v>0.20780000000000001</v>
       </c>
-      <c r="AH18" s="19">
+      <c r="Z18" s="17">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="AI18" s="19">
+      <c r="AA18" s="17">
         <v>0.55840000000000001</v>
       </c>
-      <c r="AJ18" s="19">
+      <c r="AB18" s="17">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="AK18" s="19">
+      <c r="AC18" s="17">
         <v>0.7873</v>
       </c>
-      <c r="AL18" s="20">
+      <c r="AD18" s="18">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="AM18" s="19">
+      <c r="AE18" s="17">
         <v>0.98970000000000002</v>
       </c>
-      <c r="AN18" s="19">
+      <c r="AF18" s="17">
         <v>1.83E-2</v>
       </c>
-      <c r="AO18" s="19">
+      <c r="AG18" s="17">
         <v>0.20119999999999999</v>
       </c>
-      <c r="AP18" s="19">
+      <c r="AH18" s="17">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="AQ18" s="19">
+      <c r="AI18" s="17">
         <v>0.55730000000000002</v>
       </c>
-      <c r="AR18" s="19">
+      <c r="AJ18" s="17">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="AS18" s="19">
+      <c r="AK18" s="17">
         <v>0.79259999999999997</v>
       </c>
-      <c r="AT18" s="19">
+      <c r="AL18" s="17">
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="15.75" thickBot="1">
+    <row r="19" spans="1:39" ht="15.75" thickBot="1">
       <c r="A19" s="5">
         <v>2020</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="73">
+        <v>40</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="38">
         <v>1</v>
       </c>
       <c r="E19" s="7">
@@ -3025,16 +3074,16 @@
       <c r="G19" s="8">
         <v>0.89770000000000005</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <v>195</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="16">
         <v>225</v>
       </c>
       <c r="J19" s="8">
         <v>0.95</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="13">
         <v>1</v>
       </c>
       <c r="L19" s="10">
@@ -3046,114 +3095,90 @@
       <c r="N19" s="11">
         <v>0.88270000000000004</v>
       </c>
-      <c r="O19" s="22">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="P19" s="22">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>0.1038</v>
-      </c>
-      <c r="R19" s="22">
-        <v>1.77E-2</v>
-      </c>
-      <c r="S19" s="22">
-        <v>0.51529999999999998</v>
-      </c>
-      <c r="T19" s="22">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="U19" s="22">
-        <v>0.8659</v>
-      </c>
-      <c r="V19" s="23">
-        <v>1.66E-2</v>
-      </c>
-      <c r="W19" s="19">
+      <c r="O19" s="17">
         <v>0.998</v>
       </c>
-      <c r="X19" s="19">
+      <c r="P19" s="17">
         <v>7.6E-3</v>
       </c>
-      <c r="Y19" s="19">
+      <c r="Q19" s="17">
         <v>0.1</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="R19" s="17">
         <v>1.29E-2</v>
       </c>
-      <c r="AA19" s="19">
+      <c r="S19" s="17">
         <v>0.50770000000000004</v>
       </c>
-      <c r="AB19" s="19">
+      <c r="T19" s="17">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="AC19" s="19">
+      <c r="U19" s="17">
         <v>0.86070000000000002</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="V19" s="18">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="AE19" s="19">
+      <c r="W19" s="17">
         <v>0.99450000000000005</v>
       </c>
-      <c r="AF19" s="19">
+      <c r="X19" s="17">
         <v>1.12E-2</v>
       </c>
-      <c r="AG19" s="19">
+      <c r="Y19" s="17">
         <v>0.1019</v>
       </c>
-      <c r="AH19" s="19">
+      <c r="Z19" s="17">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="AI19" s="19">
+      <c r="AA19" s="17">
         <v>0.50590000000000002</v>
       </c>
-      <c r="AJ19" s="19">
+      <c r="AB19" s="17">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="AK19" s="19">
+      <c r="AC19" s="17">
         <v>0.85960000000000003</v>
       </c>
-      <c r="AL19" s="20">
+      <c r="AD19" s="18">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="AM19" s="19">
+      <c r="AE19" s="17">
         <v>0.98619999999999997</v>
       </c>
-      <c r="AN19" s="19">
+      <c r="AF19" s="17">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="AO19" s="19">
+      <c r="AG19" s="17">
         <v>0.1076</v>
       </c>
-      <c r="AP19" s="19">
+      <c r="AH19" s="17">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="AQ19" s="19">
+      <c r="AI19" s="17">
         <v>0.50480000000000003</v>
       </c>
-      <c r="AR19" s="19">
+      <c r="AJ19" s="17">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="AS19" s="19">
+      <c r="AK19" s="17">
         <v>0.85840000000000005</v>
       </c>
-      <c r="AT19" s="19">
+      <c r="AL19" s="17">
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="15.75" thickBot="1">
+    <row r="20" spans="1:39" ht="15.75" thickBot="1">
       <c r="A20" s="5">
         <v>2020</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="73">
+        <v>40</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="38">
         <v>1</v>
       </c>
       <c r="E20" s="7">
@@ -3174,7 +3199,7 @@
       <c r="J20" s="8">
         <v>0.95</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="13">
         <v>1</v>
       </c>
       <c r="L20" s="10">
@@ -3186,114 +3211,90 @@
       <c r="N20" s="11">
         <v>0.82709999999999995</v>
       </c>
-      <c r="O20" s="22">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="P20" s="22">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="R20" s="22">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="S20" s="22">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="T20" s="22">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="U20" s="22">
-        <v>0.8518</v>
-      </c>
-      <c r="V20" s="23">
-        <v>1.78E-2</v>
-      </c>
-      <c r="W20" s="22">
+      <c r="O20" s="19">
         <v>0.97870000000000001</v>
       </c>
-      <c r="X20" s="22">
+      <c r="P20" s="19">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="Y20" s="22">
+      <c r="Q20" s="19">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="Z20" s="22">
+      <c r="R20" s="19">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="AA20" s="22">
+      <c r="S20" s="19">
         <v>0.48110000000000003</v>
       </c>
-      <c r="AB20" s="22">
+      <c r="T20" s="19">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="AC20" s="22">
+      <c r="U20" s="19">
         <v>0.85389999999999999</v>
       </c>
-      <c r="AD20" s="23">
+      <c r="V20" s="20">
         <v>2.06E-2</v>
       </c>
-      <c r="AE20" s="19">
+      <c r="W20" s="17">
         <v>0.97709999999999997</v>
       </c>
-      <c r="AF20" s="19">
+      <c r="X20" s="17">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AG20" s="19">
+      <c r="Y20" s="17">
         <v>7.51E-2</v>
       </c>
-      <c r="AH20" s="19">
+      <c r="Z20" s="17">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="AI20" s="19">
+      <c r="AA20" s="17">
         <v>0.48139999999999999</v>
       </c>
-      <c r="AJ20" s="19">
+      <c r="AB20" s="17">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="AK20" s="19">
+      <c r="AC20" s="17">
         <v>0.85089999999999999</v>
       </c>
-      <c r="AL20" s="20">
+      <c r="AD20" s="18">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="AM20" s="19">
+      <c r="AE20" s="17">
         <v>0.95899999999999996</v>
       </c>
-      <c r="AN20" s="19">
+      <c r="AF20" s="17">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="AO20" s="19">
+      <c r="AG20" s="17">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="AP20" s="19">
+      <c r="AH20" s="17">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AQ20" s="19">
+      <c r="AI20" s="17">
         <v>0.49099999999999999</v>
       </c>
-      <c r="AR20" s="19">
+      <c r="AJ20" s="17">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="AS20" s="19">
+      <c r="AK20" s="17">
         <v>0.84970000000000001</v>
       </c>
-      <c r="AT20" s="19">
+      <c r="AL20" s="17">
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="15.75" thickBot="1">
+    <row r="21" spans="1:39" ht="15.75" thickBot="1">
       <c r="A21" s="5">
         <v>2020</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="73">
+        <v>40</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="38">
         <v>1</v>
       </c>
       <c r="E21" s="7">
@@ -3314,7 +3315,7 @@
       <c r="J21" s="8">
         <v>0.95</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="13">
         <v>1</v>
       </c>
       <c r="L21" s="10">
@@ -3326,254 +3327,206 @@
       <c r="N21" s="11">
         <v>0.83130000000000004</v>
       </c>
-      <c r="O21" s="22">
-        <v>0.98050000000000004</v>
-      </c>
-      <c r="P21" s="22">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="Q21" s="22">
-        <v>0.122</v>
-      </c>
-      <c r="R21" s="22">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="S21" s="22">
-        <v>0.53869999999999996</v>
-      </c>
-      <c r="T21" s="22">
-        <v>2.3E-2</v>
-      </c>
-      <c r="U21" s="22">
-        <v>0.84519999999999995</v>
-      </c>
-      <c r="V21" s="23">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="W21" s="22">
+      <c r="O21" s="19">
         <v>0.97430000000000005</v>
       </c>
-      <c r="X21" s="22">
+      <c r="P21" s="19">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="Y21" s="22">
+      <c r="Q21" s="19">
         <v>0.12039999999999999</v>
       </c>
-      <c r="Z21" s="22">
+      <c r="R21" s="19">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AA21" s="22">
+      <c r="S21" s="19">
         <v>0.54110000000000003</v>
       </c>
-      <c r="AB21" s="22">
+      <c r="T21" s="19">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="AC21" s="22">
+      <c r="U21" s="19">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AD21" s="23">
+      <c r="V21" s="20">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="AE21" s="22">
+      <c r="W21" s="19">
         <v>0.96560000000000001</v>
       </c>
-      <c r="AF21" s="22">
+      <c r="X21" s="19">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="AG21" s="22">
+      <c r="Y21" s="19">
         <v>0.1201</v>
       </c>
-      <c r="AH21" s="22">
+      <c r="Z21" s="19">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="AI21" s="22">
+      <c r="AA21" s="19">
         <v>0.54259999999999997</v>
       </c>
-      <c r="AJ21" s="22">
+      <c r="AB21" s="19">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="AK21" s="22">
+      <c r="AC21" s="19">
         <v>0.84460000000000002</v>
       </c>
-      <c r="AL21" s="23">
+      <c r="AD21" s="20">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="AM21" s="22">
+      <c r="AE21" s="19">
         <v>0.9083</v>
       </c>
-      <c r="AN21" s="22">
+      <c r="AF21" s="19">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="AO21" s="22">
+      <c r="AG21" s="19">
         <v>0.12379999999999999</v>
       </c>
-      <c r="AP21" s="22">
+      <c r="AH21" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="AQ21" s="22">
+      <c r="AI21" s="19">
         <v>0.55769999999999997</v>
       </c>
-      <c r="AR21" s="22">
+      <c r="AJ21" s="19">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="AS21" s="22">
+      <c r="AK21" s="19">
         <v>0.83440000000000003</v>
       </c>
-      <c r="AT21" s="22">
+      <c r="AL21" s="19">
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A22" s="24">
+    <row r="22" spans="1:39" ht="15.75" thickBot="1">
+      <c r="A22" s="21">
         <v>2020</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="71" t="s">
+      <c r="B22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="40">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.2873</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="H22" s="25">
+        <v>40</v>
+      </c>
+      <c r="I22" s="25">
+        <v>70</v>
+      </c>
+      <c r="J22" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="K22" s="26">
+        <v>1</v>
+      </c>
+      <c r="L22" s="27">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="M22" s="27">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="N22" s="28">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="O22" s="29">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="P22" s="29">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>0.1963</v>
+      </c>
+      <c r="R22" s="29">
+        <v>3.61E-2</v>
+      </c>
+      <c r="S22" s="29">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="T22" s="29">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="U22" s="29">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="V22" s="30">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="W22" s="29">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="X22" s="29">
+        <v>1.15E-2</v>
+      </c>
+      <c r="Y22" s="29">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="Z22" s="29">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AA22" s="29">
+        <v>0.56379999999999997</v>
+      </c>
+      <c r="AB22" s="29">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="AC22" s="29">
+        <v>0.78469999999999995</v>
+      </c>
+      <c r="AD22" s="30">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="AE22" s="29">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="AF22" s="29">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="AG22" s="29">
+        <v>0.1885</v>
+      </c>
+      <c r="AH22" s="29">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="AI22" s="29">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="AJ22" s="29">
+        <v>3.85E-2</v>
+      </c>
+      <c r="AK22" s="29">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="AL22" s="29">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="15.75" thickBot="1">
+      <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="76">
-        <v>1</v>
-      </c>
-      <c r="E22" s="26">
-        <v>0.2873</v>
-      </c>
-      <c r="F22" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="G22" s="27">
-        <v>0.82679999999999998</v>
-      </c>
-      <c r="H22" s="28">
-        <v>40</v>
-      </c>
-      <c r="I22" s="28">
-        <v>70</v>
-      </c>
-      <c r="J22" s="27">
-        <v>0.95</v>
-      </c>
-      <c r="K22" s="29">
-        <v>1</v>
-      </c>
-      <c r="L22" s="30">
-        <v>0.17710000000000001</v>
-      </c>
-      <c r="M22" s="30">
-        <v>0.56920000000000004</v>
-      </c>
-      <c r="N22" s="31">
-        <v>0.74580000000000002</v>
-      </c>
-      <c r="O22" s="32">
-        <v>0.99760000000000004</v>
-      </c>
-      <c r="P22" s="32">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="Q22" s="32">
-        <v>0.19170000000000001</v>
-      </c>
-      <c r="R22" s="32">
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="S22" s="32">
-        <v>0.55649999999999999</v>
-      </c>
-      <c r="T22" s="32">
-        <v>3.49E-2</v>
-      </c>
-      <c r="U22" s="32">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="V22" s="33">
-        <v>3.6499999999999998E-2</v>
-      </c>
-      <c r="W22" s="32">
-        <v>0.99660000000000004</v>
-      </c>
-      <c r="X22" s="32">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Y22" s="32">
-        <v>0.1963</v>
-      </c>
-      <c r="Z22" s="32">
-        <v>3.61E-2</v>
-      </c>
-      <c r="AA22" s="32">
-        <v>0.56159999999999999</v>
-      </c>
-      <c r="AB22" s="32">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="AC22" s="32">
-        <v>0.78879999999999995</v>
-      </c>
-      <c r="AD22" s="33">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="AE22" s="32">
-        <v>0.99170000000000003</v>
-      </c>
-      <c r="AF22" s="32">
-        <v>1.15E-2</v>
-      </c>
-      <c r="AG22" s="32">
-        <v>0.19889999999999999</v>
-      </c>
-      <c r="AH22" s="32">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="AI22" s="32">
-        <v>0.56379999999999997</v>
-      </c>
-      <c r="AJ22" s="32">
-        <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="AK22" s="32">
-        <v>0.78469999999999995</v>
-      </c>
-      <c r="AL22" s="33">
-        <v>4.6100000000000002E-2</v>
-      </c>
-      <c r="AM22" s="32">
-        <v>0.97619999999999996</v>
-      </c>
-      <c r="AN22" s="32">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="AO22" s="32">
-        <v>0.1885</v>
-      </c>
-      <c r="AP22" s="32">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="AQ22" s="32">
-        <v>0.55769999999999997</v>
-      </c>
-      <c r="AR22" s="32">
-        <v>3.85E-2</v>
-      </c>
-      <c r="AS22" s="32">
-        <v>0.78639999999999999</v>
-      </c>
-      <c r="AT22" s="32">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="73">
+      <c r="D23" s="38">
         <v>1</v>
       </c>
       <c r="E23" s="7">
@@ -3585,10 +3538,10 @@
       <c r="G23" s="8">
         <v>0.96840000000000004</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="19">
         <v>6</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <v>20</v>
       </c>
       <c r="J23" s="8">
@@ -3607,113 +3560,89 @@
         <v>0.96840000000000004</v>
       </c>
       <c r="O23" s="7">
-        <v>0.99909999999999999</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="P23" s="7">
-        <v>6.6E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="Q23" s="7">
-        <v>0.49840000000000001</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="R23" s="7">
-        <v>0.27729999999999999</v>
+        <v>0.28050000000000003</v>
       </c>
       <c r="S23" s="7">
-        <v>0.77439999999999998</v>
+        <v>0.78910000000000002</v>
       </c>
       <c r="T23" s="7">
-        <v>0.1211</v>
+        <v>0.1158</v>
       </c>
       <c r="U23" s="7">
-        <v>0.70689999999999997</v>
+        <v>0.71279999999999999</v>
       </c>
       <c r="V23" s="8">
-        <v>0.1216</v>
+        <v>0.11210000000000001</v>
       </c>
       <c r="W23" s="7">
-        <v>0.99950000000000006</v>
+        <v>0.99739999999999995</v>
       </c>
       <c r="X23" s="7">
-        <v>5.3E-3</v>
+        <v>1.34E-2</v>
       </c>
       <c r="Y23" s="7">
-        <v>0.55400000000000005</v>
+        <v>0.4995</v>
       </c>
       <c r="Z23" s="7">
-        <v>0.28050000000000003</v>
+        <v>0.25869999999999999</v>
       </c>
       <c r="AA23" s="7">
-        <v>0.78910000000000002</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="AB23" s="7">
-        <v>0.1158</v>
+        <v>0.1045</v>
       </c>
       <c r="AC23" s="7">
-        <v>0.71279999999999999</v>
+        <v>0.69420000000000004</v>
       </c>
       <c r="AD23" s="8">
-        <v>0.11210000000000001</v>
+        <v>0.1014</v>
       </c>
       <c r="AE23" s="7">
-        <v>0.99739999999999995</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="AF23" s="7">
-        <v>1.34E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AG23" s="7">
-        <v>0.4995</v>
+        <v>0.23760000000000001</v>
       </c>
       <c r="AH23" s="7">
-        <v>0.25869999999999999</v>
+        <v>0.1409</v>
       </c>
       <c r="AI23" s="7">
-        <v>0.77600000000000002</v>
+        <v>0.70079999999999998</v>
       </c>
       <c r="AJ23" s="7">
-        <v>0.1045</v>
+        <v>6.93E-2</v>
       </c>
       <c r="AK23" s="7">
-        <v>0.69420000000000004</v>
-      </c>
-      <c r="AL23" s="8">
-        <v>0.1014</v>
-      </c>
-      <c r="AM23" s="7">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="AN23" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AO23" s="7">
-        <v>0.23760000000000001</v>
-      </c>
-      <c r="AP23" s="7">
+        <v>0.70809999999999995</v>
+      </c>
+      <c r="AL23" s="7">
         <v>0.1409</v>
       </c>
-      <c r="AQ23" s="7">
-        <v>0.70079999999999998</v>
-      </c>
-      <c r="AR23" s="7">
-        <v>6.93E-2</v>
-      </c>
-      <c r="AS23" s="7">
-        <v>0.70809999999999995</v>
-      </c>
-      <c r="AT23" s="7">
-        <v>0.1409</v>
-      </c>
     </row>
-    <row r="24" spans="1:46" ht="15.75" thickBot="1">
+    <row r="24" spans="1:39" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="73">
+      <c r="C24" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="38">
         <v>1</v>
       </c>
       <c r="E24" s="7">
@@ -3725,10 +3654,10 @@
       <c r="G24" s="8">
         <v>0.87190000000000001</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="19">
         <v>6</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="19">
         <v>35</v>
       </c>
       <c r="J24" s="8">
@@ -3747,113 +3676,89 @@
         <v>0.76290000000000002</v>
       </c>
       <c r="O24" s="7">
-        <v>0.99990000000000001</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="P24" s="7">
-        <v>1E-4</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="Q24" s="7">
-        <v>0.44180000000000003</v>
+        <v>0.37209999999999999</v>
       </c>
       <c r="R24" s="7">
-        <v>0.23419999999999999</v>
+        <v>0.1812</v>
       </c>
       <c r="S24" s="7">
-        <v>0.72109999999999996</v>
+        <v>0.70569999999999999</v>
       </c>
       <c r="T24" s="7">
-        <v>9.3899999999999997E-2</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="U24" s="7">
-        <v>0.66720000000000002</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="V24" s="8">
-        <v>9.4100000000000003E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="W24" s="7">
-        <v>0.99939999999999996</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="X24" s="7">
-        <v>5.4999999999999997E-3</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="Y24" s="7">
-        <v>0.37209999999999999</v>
+        <v>0.3931</v>
       </c>
       <c r="Z24" s="7">
-        <v>0.1812</v>
+        <v>0.21959999999999999</v>
       </c>
       <c r="AA24" s="7">
-        <v>0.70569999999999999</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="AB24" s="7">
-        <v>8.3599999999999994E-2</v>
+        <v>9.7100000000000006E-2</v>
       </c>
       <c r="AC24" s="7">
-        <v>0.67059999999999997</v>
+        <v>0.67449999999999999</v>
       </c>
       <c r="AD24" s="8">
-        <v>8.4699999999999998E-2</v>
+        <v>9.69E-2</v>
       </c>
       <c r="AE24" s="7">
-        <v>0.99760000000000004</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="AF24" s="7">
-        <v>1.1900000000000001E-2</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="AG24" s="7">
-        <v>0.3931</v>
+        <v>0.2412</v>
       </c>
       <c r="AH24" s="7">
-        <v>0.21959999999999999</v>
+        <v>0.1406</v>
       </c>
       <c r="AI24" s="7">
-        <v>0.70950000000000002</v>
+        <v>0.68740000000000001</v>
       </c>
       <c r="AJ24" s="7">
-        <v>9.7100000000000006E-2</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="AK24" s="7">
-        <v>0.67449999999999999</v>
-      </c>
-      <c r="AL24" s="8">
-        <v>9.69E-2</v>
-      </c>
-      <c r="AM24" s="7">
-        <v>0.93669999999999998</v>
-      </c>
-      <c r="AN24" s="7">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="AO24" s="7">
-        <v>0.2412</v>
-      </c>
-      <c r="AP24" s="7">
-        <v>0.1406</v>
-      </c>
-      <c r="AQ24" s="7">
-        <v>0.68740000000000001</v>
-      </c>
-      <c r="AR24" s="7">
-        <v>7.4099999999999999E-2</v>
-      </c>
-      <c r="AS24" s="7">
         <v>0.67049999999999998</v>
       </c>
-      <c r="AT24" s="7">
+      <c r="AL24" s="7">
         <v>0.12809999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="15.75" thickBot="1">
+    <row r="25" spans="1:39" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="73">
+      <c r="C25" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="38">
         <v>1</v>
       </c>
       <c r="E25" s="7">
@@ -3865,10 +3770,10 @@
       <c r="G25" s="8">
         <v>0.94110000000000005</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="19">
         <v>6</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="19">
         <v>35</v>
       </c>
       <c r="J25" s="8">
@@ -3887,113 +3792,89 @@
         <v>0.80659999999999998</v>
       </c>
       <c r="O25" s="7">
-        <v>0.99609999999999999</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="P25" s="7">
-        <v>1.01E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q25" s="7">
-        <v>0.4345</v>
+        <v>0.4516</v>
       </c>
       <c r="R25" s="7">
-        <v>0.13550000000000001</v>
+        <v>0.1452</v>
       </c>
       <c r="S25" s="7">
-        <v>0.64390000000000003</v>
+        <v>0.64859999999999995</v>
       </c>
       <c r="T25" s="7">
+        <v>4.7E-2</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="V25" s="8">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="X25" s="7">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>0.3891</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>8.77E-2</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="AB25" s="7">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="U25" s="7">
-        <v>0.7157</v>
-      </c>
-      <c r="V25" s="8">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="W25" s="7">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="X25" s="7">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="Y25" s="7">
-        <v>0.4516</v>
-      </c>
-      <c r="Z25" s="7">
-        <v>0.1452</v>
-      </c>
-      <c r="AA25" s="7">
-        <v>0.64859999999999995</v>
-      </c>
-      <c r="AB25" s="7">
-        <v>4.7E-2</v>
-      </c>
       <c r="AC25" s="7">
-        <v>0.74470000000000003</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="AD25" s="8">
-        <v>7.3599999999999999E-2</v>
+        <v>8.8400000000000006E-2</v>
       </c>
       <c r="AE25" s="7">
-        <v>0.98970000000000002</v>
+        <v>0.92969999999999997</v>
       </c>
       <c r="AF25" s="7">
-        <v>1.6199999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AG25" s="7">
-        <v>0.3891</v>
+        <v>0.30719999999999997</v>
       </c>
       <c r="AH25" s="7">
-        <v>8.77E-2</v>
+        <v>0.129</v>
       </c>
       <c r="AI25" s="7">
-        <v>0.64939999999999998</v>
+        <v>0.66520000000000001</v>
       </c>
       <c r="AJ25" s="7">
-        <v>5.9299999999999999E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="AK25" s="7">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="AL25" s="8">
-        <v>8.8400000000000006E-2</v>
-      </c>
-      <c r="AM25" s="7">
-        <v>0.92969999999999997</v>
-      </c>
-      <c r="AN25" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AO25" s="7">
-        <v>0.30719999999999997</v>
-      </c>
-      <c r="AP25" s="7">
-        <v>0.129</v>
-      </c>
-      <c r="AQ25" s="7">
-        <v>0.66520000000000001</v>
-      </c>
-      <c r="AR25" s="7">
-        <v>4.19E-2</v>
-      </c>
-      <c r="AS25" s="7">
         <v>0.74239999999999995</v>
       </c>
-      <c r="AT25" s="7">
+      <c r="AL25" s="7">
         <v>9.6699999999999994E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="15.75" thickBot="1">
+    <row r="26" spans="1:39" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="73">
+      <c r="C26" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="38">
         <v>1</v>
       </c>
       <c r="E26" s="7">
@@ -4005,7 +3886,7 @@
       <c r="G26" s="8">
         <v>0.97019999999999995</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="19">
         <v>3</v>
       </c>
       <c r="I26" s="7">
@@ -4033,22 +3914,22 @@
         <v>0</v>
       </c>
       <c r="Q26" s="7">
-        <v>0.73080000000000001</v>
+        <v>0.7218</v>
       </c>
       <c r="R26" s="7">
-        <v>0.12520000000000001</v>
+        <v>0.1191</v>
       </c>
       <c r="S26" s="7">
-        <v>0.77590000000000003</v>
+        <v>0.78129999999999999</v>
       </c>
       <c r="T26" s="7">
-        <v>5.7700000000000001E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="U26" s="7">
-        <v>0.72599999999999998</v>
+        <v>0.73260000000000003</v>
       </c>
       <c r="V26" s="8">
-        <v>6.8400000000000002E-2</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="W26" s="7">
         <v>1</v>
@@ -4057,83 +3938,59 @@
         <v>0</v>
       </c>
       <c r="Y26" s="7">
-        <v>0.7218</v>
+        <v>0.69479999999999997</v>
       </c>
       <c r="Z26" s="7">
-        <v>0.1191</v>
+        <v>0.1225</v>
       </c>
       <c r="AA26" s="7">
-        <v>0.78129999999999999</v>
+        <v>0.75849999999999995</v>
       </c>
       <c r="AB26" s="7">
-        <v>5.8700000000000002E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="AC26" s="7">
-        <v>0.73260000000000003</v>
+        <v>0.70450000000000002</v>
       </c>
       <c r="AD26" s="8">
-        <v>6.9800000000000001E-2</v>
+        <v>6.2600000000000003E-2</v>
       </c>
       <c r="AE26" s="7">
-        <v>1</v>
+        <v>0.92420000000000002</v>
       </c>
       <c r="AF26" s="7">
-        <v>0</v>
+        <v>8.77E-2</v>
       </c>
       <c r="AG26" s="7">
-        <v>0.69479999999999997</v>
+        <v>0.73089999999999999</v>
       </c>
       <c r="AH26" s="7">
-        <v>0.1225</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="AI26" s="7">
-        <v>0.75849999999999995</v>
+        <v>0.82540000000000002</v>
       </c>
       <c r="AJ26" s="7">
-        <v>5.04E-2</v>
+        <v>9.5299999999999996E-2</v>
       </c>
       <c r="AK26" s="7">
-        <v>0.70450000000000002</v>
-      </c>
-      <c r="AL26" s="8">
-        <v>6.2600000000000003E-2</v>
-      </c>
-      <c r="AM26" s="7">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="AN26" s="7">
-        <v>8.77E-2</v>
-      </c>
-      <c r="AO26" s="7">
-        <v>0.73089999999999999</v>
-      </c>
-      <c r="AP26" s="7">
-        <v>0.19189999999999999</v>
-      </c>
-      <c r="AQ26" s="7">
-        <v>0.82540000000000002</v>
-      </c>
-      <c r="AR26" s="7">
-        <v>9.5299999999999996E-2</v>
-      </c>
-      <c r="AS26" s="7">
         <v>0.74150000000000005</v>
       </c>
-      <c r="AT26" s="7">
+      <c r="AL26" s="7">
         <v>0.1226</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="15.75" thickBot="1">
+    <row r="27" spans="1:39" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="73">
+      <c r="C27" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="38">
         <v>1</v>
       </c>
       <c r="E27" s="7">
@@ -4145,7 +4002,7 @@
       <c r="G27" s="8">
         <v>0.97560000000000002</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="19">
         <v>3</v>
       </c>
       <c r="I27" s="7">
@@ -4173,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="Q27" s="7">
-        <v>0.77829999999999999</v>
+        <v>0.78949999999999998</v>
       </c>
       <c r="R27" s="7">
-        <v>0.1173</v>
+        <v>0.1042</v>
       </c>
       <c r="S27" s="7">
-        <v>0.76329999999999998</v>
+        <v>0.76270000000000004</v>
       </c>
       <c r="T27" s="7">
-        <v>5.5899999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="U27" s="7">
-        <v>0.71260000000000001</v>
+        <v>0.71289999999999998</v>
       </c>
       <c r="V27" s="8">
-        <v>6.8699999999999997E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="W27" s="7">
         <v>1</v>
@@ -4197,83 +4054,59 @@
         <v>0</v>
       </c>
       <c r="Y27" s="7">
-        <v>0.78949999999999998</v>
+        <v>0.78979999999999995</v>
       </c>
       <c r="Z27" s="7">
-        <v>0.1042</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="AA27" s="7">
-        <v>0.76270000000000004</v>
+        <v>0.76570000000000005</v>
       </c>
       <c r="AB27" s="7">
-        <v>5.3999999999999999E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="AC27" s="7">
-        <v>0.71289999999999998</v>
+        <v>0.71579999999999999</v>
       </c>
       <c r="AD27" s="8">
-        <v>6.6100000000000006E-2</v>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="AE27" s="7">
-        <v>1</v>
+        <v>0.95760000000000001</v>
       </c>
       <c r="AF27" s="7">
-        <v>0</v>
+        <v>0.1094</v>
       </c>
       <c r="AG27" s="7">
-        <v>0.78979999999999995</v>
+        <v>0.78449999999999998</v>
       </c>
       <c r="AH27" s="7">
-        <v>0.10639999999999999</v>
+        <v>0.17680000000000001</v>
       </c>
       <c r="AI27" s="7">
-        <v>0.76570000000000005</v>
+        <v>0.80149999999999999</v>
       </c>
       <c r="AJ27" s="7">
-        <v>5.3800000000000001E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="AK27" s="7">
-        <v>0.71579999999999999</v>
-      </c>
-      <c r="AL27" s="8">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="AM27" s="7">
-        <v>0.95760000000000001</v>
-      </c>
-      <c r="AN27" s="7">
-        <v>0.1094</v>
-      </c>
-      <c r="AO27" s="7">
-        <v>0.78449999999999998</v>
-      </c>
-      <c r="AP27" s="7">
-        <v>0.17680000000000001</v>
-      </c>
-      <c r="AQ27" s="7">
-        <v>0.80149999999999999</v>
-      </c>
-      <c r="AR27" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AS27" s="7">
         <v>0.77200000000000002</v>
       </c>
-      <c r="AT27" s="7">
+      <c r="AL27" s="7">
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="15.75" thickBot="1">
+    <row r="28" spans="1:39" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="73">
+      <c r="C28" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="38">
         <v>1</v>
       </c>
       <c r="E28" s="7">
@@ -4285,7 +4118,7 @@
       <c r="G28" s="8">
         <v>0.80700000000000005</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="19">
         <v>6</v>
       </c>
       <c r="I28" s="7">
@@ -4307,113 +4140,89 @@
         <v>0.69169999999999998</v>
       </c>
       <c r="O28" s="7">
-        <v>0.99939999999999996</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="P28" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="Q28" s="7">
-        <v>0.3594</v>
+        <v>0.38059999999999999</v>
       </c>
       <c r="R28" s="7">
-        <v>0.2331</v>
+        <v>0.24460000000000001</v>
       </c>
       <c r="S28" s="7">
-        <v>0.70379999999999998</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="T28" s="7">
-        <v>9.3799999999999994E-2</v>
+        <v>9.8299999999999998E-2</v>
       </c>
       <c r="U28" s="7">
-        <v>0.6421</v>
+        <v>0.67069999999999996</v>
       </c>
       <c r="V28" s="8">
-        <v>9.8500000000000004E-2</v>
+        <v>0.11210000000000001</v>
       </c>
       <c r="W28" s="7">
-        <v>0.99950000000000006</v>
+        <v>0.99539999999999995</v>
       </c>
       <c r="X28" s="7">
-        <v>4.7000000000000002E-3</v>
+        <v>1.66E-2</v>
       </c>
       <c r="Y28" s="7">
-        <v>0.38059999999999999</v>
+        <v>0.37259999999999999</v>
       </c>
       <c r="Z28" s="7">
-        <v>0.24460000000000001</v>
+        <v>0.2429</v>
       </c>
       <c r="AA28" s="7">
-        <v>0.70550000000000002</v>
+        <v>0.7117</v>
       </c>
       <c r="AB28" s="7">
-        <v>9.8299999999999998E-2</v>
+        <v>9.3299999999999994E-2</v>
       </c>
       <c r="AC28" s="7">
-        <v>0.67069999999999996</v>
+        <v>0.64539999999999997</v>
       </c>
       <c r="AD28" s="8">
-        <v>0.11210000000000001</v>
+        <v>9.9900000000000003E-2</v>
       </c>
       <c r="AE28" s="7">
-        <v>0.99539999999999995</v>
+        <v>0.94320000000000004</v>
       </c>
       <c r="AF28" s="7">
-        <v>1.66E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AG28" s="7">
-        <v>0.37259999999999999</v>
+        <v>0.2407</v>
       </c>
       <c r="AH28" s="7">
-        <v>0.2429</v>
+        <v>0.17730000000000001</v>
       </c>
       <c r="AI28" s="7">
-        <v>0.7117</v>
+        <v>0.69089999999999996</v>
       </c>
       <c r="AJ28" s="7">
-        <v>9.3299999999999994E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="AK28" s="7">
-        <v>0.64539999999999997</v>
-      </c>
-      <c r="AL28" s="8">
-        <v>9.9900000000000003E-2</v>
-      </c>
-      <c r="AM28" s="7">
-        <v>0.94320000000000004</v>
-      </c>
-      <c r="AN28" s="7">
-        <v>6.2E-2</v>
-      </c>
-      <c r="AO28" s="7">
-        <v>0.2407</v>
-      </c>
-      <c r="AP28" s="7">
-        <v>0.17730000000000001</v>
-      </c>
-      <c r="AQ28" s="7">
-        <v>0.69089999999999996</v>
-      </c>
-      <c r="AR28" s="7">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="AS28" s="7">
         <v>0.63060000000000005</v>
       </c>
-      <c r="AT28" s="7">
+      <c r="AL28" s="7">
         <v>0.1115</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="15.75" thickBot="1">
+    <row r="29" spans="1:39" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="73">
+      <c r="C29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="38">
         <v>1</v>
       </c>
       <c r="E29" s="7">
@@ -4425,7 +4234,7 @@
       <c r="G29" s="8">
         <v>0.96840000000000004</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="19">
         <v>6</v>
       </c>
       <c r="I29" s="7">
@@ -4447,113 +4256,89 @@
         <v>0.96840000000000004</v>
       </c>
       <c r="O29" s="7">
-        <v>0.99309999999999998</v>
+        <v>0.99380000000000002</v>
       </c>
       <c r="P29" s="7">
-        <v>1.6799999999999999E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="Q29" s="7">
-        <v>0.51529999999999998</v>
+        <v>0.50090000000000001</v>
       </c>
       <c r="R29" s="7">
-        <v>0.18459999999999999</v>
+        <v>0.1825</v>
       </c>
       <c r="S29" s="7">
-        <v>0.69110000000000005</v>
+        <v>0.69340000000000002</v>
       </c>
       <c r="T29" s="7">
-        <v>7.9100000000000004E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="U29" s="7">
-        <v>0.75480000000000003</v>
+        <v>0.7661</v>
       </c>
       <c r="V29" s="8">
-        <v>8.1299999999999997E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="W29" s="7">
-        <v>0.99380000000000002</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="X29" s="7">
-        <v>1.54E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="Y29" s="7">
-        <v>0.50090000000000001</v>
+        <v>0.37259999999999999</v>
       </c>
       <c r="Z29" s="7">
-        <v>0.1825</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="AA29" s="7">
-        <v>0.69340000000000002</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="AB29" s="7">
-        <v>8.4000000000000005E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="AC29" s="7">
-        <v>0.7661</v>
+        <v>0.78039999999999998</v>
       </c>
       <c r="AD29" s="8">
-        <v>7.5800000000000006E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="AE29" s="7">
-        <v>0.99450000000000005</v>
+        <v>0.92069999999999996</v>
       </c>
       <c r="AF29" s="7">
-        <v>1.52E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AG29" s="7">
-        <v>0.37259999999999999</v>
+        <v>0.36309999999999998</v>
       </c>
       <c r="AH29" s="7">
-        <v>7.5499999999999998E-2</v>
+        <v>0.13730000000000001</v>
       </c>
       <c r="AI29" s="7">
-        <v>0.65600000000000003</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="AJ29" s="7">
-        <v>4.9700000000000001E-2</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="AK29" s="7">
-        <v>0.78039999999999998</v>
-      </c>
-      <c r="AL29" s="8">
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="AM29" s="7">
-        <v>0.92069999999999996</v>
-      </c>
-      <c r="AN29" s="7">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AO29" s="7">
-        <v>0.36309999999999998</v>
-      </c>
-      <c r="AP29" s="7">
-        <v>0.13730000000000001</v>
-      </c>
-      <c r="AQ29" s="7">
-        <v>0.67610000000000003</v>
-      </c>
-      <c r="AR29" s="7">
-        <v>5.0599999999999999E-2</v>
-      </c>
-      <c r="AS29" s="7">
         <v>0.76900000000000002</v>
       </c>
-      <c r="AT29" s="7">
+      <c r="AL29" s="7">
         <v>9.5600000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="15.75" thickBot="1">
+    <row r="30" spans="1:39" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="73">
+      <c r="C30" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="38">
         <v>1</v>
       </c>
       <c r="E30" s="7">
@@ -4565,7 +4350,7 @@
       <c r="G30" s="8">
         <v>0.97330000000000005</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="19">
         <v>5</v>
       </c>
       <c r="I30" s="7">
@@ -4587,113 +4372,89 @@
         <v>0.86399999999999999</v>
       </c>
       <c r="O30" s="7">
-        <v>0.99880000000000002</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="P30" s="7">
-        <v>6.7999999999999996E-3</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="Q30" s="7">
-        <v>0.43559999999999999</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="R30" s="7">
-        <v>0.17430000000000001</v>
+        <v>0.18490000000000001</v>
       </c>
       <c r="S30" s="7">
-        <v>0.70750000000000002</v>
+        <v>0.7046</v>
       </c>
       <c r="T30" s="7">
-        <v>5.8799999999999998E-2</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="U30" s="7">
-        <v>0.7016</v>
+        <v>0.70760000000000001</v>
       </c>
       <c r="V30" s="8">
-        <v>7.9899999999999999E-2</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="W30" s="7">
-        <v>0.99680000000000002</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="X30" s="7">
-        <v>1.1599999999999999E-2</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="Y30" s="7">
-        <v>0.40189999999999998</v>
+        <v>0.43259999999999998</v>
       </c>
       <c r="Z30" s="7">
-        <v>0.18490000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="AA30" s="7">
-        <v>0.7046</v>
+        <v>0.72360000000000002</v>
       </c>
       <c r="AB30" s="7">
-        <v>6.0100000000000001E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="AC30" s="7">
-        <v>0.70760000000000001</v>
+        <v>0.7238</v>
       </c>
       <c r="AD30" s="8">
-        <v>8.3799999999999999E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="AE30" s="7">
-        <v>0.99070000000000003</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="AF30" s="7">
-        <v>2.3099999999999999E-2</v>
+        <v>9.3299999999999994E-2</v>
       </c>
       <c r="AG30" s="7">
-        <v>0.43259999999999998</v>
+        <v>0.26679999999999998</v>
       </c>
       <c r="AH30" s="7">
-        <v>0.221</v>
+        <v>0.1721</v>
       </c>
       <c r="AI30" s="7">
-        <v>0.72360000000000002</v>
+        <v>0.7036</v>
       </c>
       <c r="AJ30" s="7">
-        <v>8.14E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="AK30" s="7">
-        <v>0.7238</v>
-      </c>
-      <c r="AL30" s="8">
-        <v>8.8599999999999998E-2</v>
-      </c>
-      <c r="AM30" s="7">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="AN30" s="7">
-        <v>9.3299999999999994E-2</v>
-      </c>
-      <c r="AO30" s="7">
-        <v>0.26679999999999998</v>
-      </c>
-      <c r="AP30" s="7">
-        <v>0.1721</v>
-      </c>
-      <c r="AQ30" s="7">
-        <v>0.7036</v>
-      </c>
-      <c r="AR30" s="7">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="AS30" s="7">
         <v>0.74350000000000005</v>
       </c>
-      <c r="AT30" s="7">
+      <c r="AL30" s="7">
         <v>0.1051</v>
       </c>
     </row>
-    <row r="31" spans="1:46" ht="15.75" thickBot="1">
+    <row r="31" spans="1:39" ht="15.75" thickBot="1">
       <c r="A31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="73">
+      <c r="C31" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="38">
         <v>1</v>
       </c>
       <c r="E31" s="7">
@@ -4705,7 +4466,7 @@
       <c r="G31" s="8">
         <v>0.9778</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="19">
         <v>5</v>
       </c>
       <c r="I31" s="7">
@@ -4727,113 +4488,89 @@
         <v>0.80449999999999999</v>
       </c>
       <c r="O31" s="7">
-        <v>0.99529999999999996</v>
+        <v>0.99609999999999999</v>
       </c>
       <c r="P31" s="7">
-        <v>1.0800000000000001E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="Q31" s="7">
-        <v>0.39579999999999999</v>
+        <v>0.39860000000000001</v>
       </c>
       <c r="R31" s="7">
-        <v>0.1381</v>
+        <v>0.15970000000000001</v>
       </c>
       <c r="S31" s="7">
-        <v>0.68840000000000001</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="T31" s="7">
-        <v>3.4299999999999997E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="U31" s="7">
-        <v>0.73670000000000002</v>
+        <v>0.74939999999999996</v>
       </c>
       <c r="V31" s="8">
-        <v>6.08E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="W31" s="7">
-        <v>0.99609999999999999</v>
+        <v>0.99429999999999996</v>
       </c>
       <c r="X31" s="7">
-        <v>1.15E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Y31" s="7">
-        <v>0.39860000000000001</v>
+        <v>0.39179999999999998</v>
       </c>
       <c r="Z31" s="7">
-        <v>0.15970000000000001</v>
+        <v>0.1133</v>
       </c>
       <c r="AA31" s="7">
-        <v>0.69099999999999995</v>
+        <v>0.6825</v>
       </c>
       <c r="AB31" s="7">
-        <v>5.4199999999999998E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="AC31" s="7">
-        <v>0.74939999999999996</v>
+        <v>0.73629999999999995</v>
       </c>
       <c r="AD31" s="8">
-        <v>6.7500000000000004E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="AE31" s="7">
-        <v>0.99429999999999996</v>
+        <v>0.92149999999999999</v>
       </c>
       <c r="AF31" s="7">
-        <v>1.2999999999999999E-2</v>
+        <v>9.9400000000000002E-2</v>
       </c>
       <c r="AG31" s="7">
-        <v>0.39179999999999998</v>
+        <v>0.3231</v>
       </c>
       <c r="AH31" s="7">
-        <v>0.1133</v>
+        <v>0.1779</v>
       </c>
       <c r="AI31" s="7">
-        <v>0.6825</v>
+        <v>0.70809999999999995</v>
       </c>
       <c r="AJ31" s="7">
-        <v>2.58E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AK31" s="7">
-        <v>0.73629999999999995</v>
-      </c>
-      <c r="AL31" s="8">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="AM31" s="7">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="AN31" s="7">
-        <v>9.9400000000000002E-2</v>
-      </c>
-      <c r="AO31" s="7">
-        <v>0.3231</v>
-      </c>
-      <c r="AP31" s="7">
-        <v>0.1779</v>
-      </c>
-      <c r="AQ31" s="7">
-        <v>0.70809999999999995</v>
-      </c>
-      <c r="AR31" s="7">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="AS31" s="7">
         <v>0.7792</v>
       </c>
-      <c r="AT31" s="7">
+      <c r="AL31" s="7">
         <v>9.1899999999999996E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="15.75" thickBot="1">
+    <row r="32" spans="1:39" ht="15.75" thickBot="1">
       <c r="A32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="73">
+      <c r="C32" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="38">
         <v>1</v>
       </c>
       <c r="E32" s="7">
@@ -4845,7 +4582,7 @@
       <c r="G32" s="8">
         <v>0.96220000000000006</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="19">
         <v>5</v>
       </c>
       <c r="I32" s="7">
@@ -4867,113 +4604,89 @@
         <v>0.69979999999999998</v>
       </c>
       <c r="O32" s="7">
-        <v>0.99770000000000003</v>
+        <v>0.99750000000000005</v>
       </c>
       <c r="P32" s="7">
-        <v>8.8000000000000005E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="Q32" s="7">
-        <v>0.33829999999999999</v>
+        <v>0.36149999999999999</v>
       </c>
       <c r="R32" s="7">
-        <v>7.5999999999999998E-2</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="S32" s="7">
-        <v>0.66500000000000004</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="T32" s="7">
-        <v>2.52E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="U32" s="7">
-        <v>0.73899999999999999</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="V32" s="8">
-        <v>7.6600000000000001E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="W32" s="7">
-        <v>0.99750000000000005</v>
+        <v>0.995</v>
       </c>
       <c r="X32" s="7">
-        <v>1.0500000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y32" s="7">
-        <v>0.36149999999999999</v>
+        <v>0.36770000000000003</v>
       </c>
       <c r="Z32" s="7">
-        <v>8.3199999999999996E-2</v>
+        <v>0.1037</v>
       </c>
       <c r="AA32" s="7">
-        <v>0.66779999999999995</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AB32" s="7">
-        <v>2.29E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="AC32" s="7">
-        <v>0.73750000000000004</v>
+        <v>0.73839999999999995</v>
       </c>
       <c r="AD32" s="8">
-        <v>8.0500000000000002E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
       <c r="AE32" s="7">
-        <v>0.995</v>
+        <v>0.90539999999999998</v>
       </c>
       <c r="AF32" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>9.7100000000000006E-2</v>
       </c>
       <c r="AG32" s="7">
-        <v>0.36770000000000003</v>
+        <v>0.29010000000000002</v>
       </c>
       <c r="AH32" s="7">
-        <v>0.1037</v>
+        <v>0.13669999999999999</v>
       </c>
       <c r="AI32" s="7">
-        <v>0.67600000000000005</v>
+        <v>0.70009999999999994</v>
       </c>
       <c r="AJ32" s="7">
-        <v>2.7300000000000001E-2</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="AK32" s="7">
-        <v>0.73839999999999995</v>
-      </c>
-      <c r="AL32" s="8">
-        <v>8.3099999999999993E-2</v>
-      </c>
-      <c r="AM32" s="7">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="AN32" s="7">
-        <v>9.7100000000000006E-2</v>
-      </c>
-      <c r="AO32" s="7">
-        <v>0.29010000000000002</v>
-      </c>
-      <c r="AP32" s="7">
-        <v>0.13669999999999999</v>
-      </c>
-      <c r="AQ32" s="7">
-        <v>0.70009999999999994</v>
-      </c>
-      <c r="AR32" s="7">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="AS32" s="7">
         <v>0.77780000000000005</v>
       </c>
-      <c r="AT32" s="7">
+      <c r="AL32" s="7">
         <v>0.1188</v>
       </c>
     </row>
-    <row r="33" spans="1:46" ht="15.75" thickBot="1">
+    <row r="33" spans="1:38" ht="15.75" thickBot="1">
       <c r="A33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="73">
+      <c r="C33" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="38">
         <v>1</v>
       </c>
       <c r="E33" s="7">
@@ -4985,7 +4698,7 @@
       <c r="G33" s="8">
         <v>0.96840000000000004</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="19">
         <v>30</v>
       </c>
       <c r="I33" s="7">
@@ -5007,113 +4720,89 @@
         <v>0.71009999999999995</v>
       </c>
       <c r="O33" s="7">
-        <v>0.99209999999999998</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="P33" s="7">
-        <v>1.47E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="Q33" s="7">
-        <v>0.17380000000000001</v>
+        <v>0.1663</v>
       </c>
       <c r="R33" s="7">
-        <v>4.58E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="S33" s="7">
-        <v>0.62490000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="T33" s="7">
-        <v>2.2599999999999999E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="U33" s="7">
-        <v>0.80969999999999998</v>
+        <v>0.8165</v>
       </c>
       <c r="V33" s="8">
-        <v>5.0099999999999999E-2</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="W33" s="7">
-        <v>0.98939999999999995</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="X33" s="7">
-        <v>1.6299999999999999E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="Y33" s="7">
-        <v>0.1663</v>
+        <v>0.15290000000000001</v>
       </c>
       <c r="Z33" s="7">
-        <v>3.1300000000000001E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="AA33" s="7">
-        <v>0.62</v>
+        <v>0.61970000000000003</v>
       </c>
       <c r="AB33" s="7">
-        <v>2.7099999999999999E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="AC33" s="7">
-        <v>0.8165</v>
+        <v>0.79730000000000001</v>
       </c>
       <c r="AD33" s="8">
-        <v>6.7299999999999999E-2</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="AE33" s="7">
-        <v>0.98250000000000004</v>
+        <v>0.92830000000000001</v>
       </c>
       <c r="AF33" s="7">
-        <v>2.2800000000000001E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="AG33" s="7">
-        <v>0.15290000000000001</v>
+        <v>0.10349999999999999</v>
       </c>
       <c r="AH33" s="7">
-        <v>3.6400000000000002E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="AI33" s="7">
-        <v>0.61970000000000003</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="AJ33" s="7">
-        <v>2.4199999999999999E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="AK33" s="7">
-        <v>0.79730000000000001</v>
-      </c>
-      <c r="AL33" s="8">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="AM33" s="7">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="AN33" s="7">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="AO33" s="7">
-        <v>0.10349999999999999</v>
-      </c>
-      <c r="AP33" s="7">
-        <v>6.6400000000000001E-2</v>
-      </c>
-      <c r="AQ33" s="7">
-        <v>0.63329999999999997</v>
-      </c>
-      <c r="AR33" s="7">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="AS33" s="7">
         <v>0.79010000000000002</v>
       </c>
-      <c r="AT33" s="7">
+      <c r="AL33" s="7">
         <v>7.6300000000000007E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:46" ht="15.75" thickBot="1">
+    <row r="34" spans="1:38" ht="15.75" thickBot="1">
       <c r="A34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="73">
+      <c r="C34" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="38">
         <v>1</v>
       </c>
       <c r="E34" s="7">
@@ -5125,7 +4814,7 @@
       <c r="G34" s="8">
         <v>0.97140000000000004</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="19">
         <v>3</v>
       </c>
       <c r="I34" s="7">
@@ -5147,113 +4836,89 @@
         <v>0.70589999999999997</v>
       </c>
       <c r="O34" s="7">
-        <v>0.96889999999999998</v>
+        <v>0.96750000000000003</v>
       </c>
       <c r="P34" s="7">
-        <v>2.3300000000000001E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="Q34" s="7">
-        <v>0.53249999999999997</v>
+        <v>0.54059999999999997</v>
       </c>
       <c r="R34" s="7">
-        <v>8.4500000000000006E-2</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="S34" s="7">
-        <v>0.69469999999999998</v>
+        <v>0.6986</v>
       </c>
       <c r="T34" s="7">
-        <v>2.9100000000000001E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="U34" s="7">
-        <v>0.81389999999999996</v>
+        <v>0.81610000000000005</v>
       </c>
       <c r="V34" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="W34" s="7">
-        <v>0.96750000000000003</v>
+        <v>0.9617</v>
       </c>
       <c r="X34" s="7">
-        <v>2.2200000000000001E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="Y34" s="7">
-        <v>0.54059999999999997</v>
+        <v>0.63939999999999997</v>
       </c>
       <c r="Z34" s="7">
-        <v>8.4900000000000003E-2</v>
+        <v>0.19309999999999999</v>
       </c>
       <c r="AA34" s="7">
-        <v>0.6986</v>
+        <v>0.73319999999999996</v>
       </c>
       <c r="AB34" s="7">
-        <v>3.2500000000000001E-2</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="AC34" s="7">
-        <v>0.81610000000000005</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="AD34" s="8">
-        <v>3.7499999999999999E-2</v>
+        <v>6.88E-2</v>
       </c>
       <c r="AE34" s="7">
-        <v>0.9617</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="AF34" s="7">
-        <v>1.95E-2</v>
+        <v>9.5299999999999996E-2</v>
       </c>
       <c r="AG34" s="7">
-        <v>0.63939999999999997</v>
+        <v>0.75080000000000002</v>
       </c>
       <c r="AH34" s="7">
-        <v>0.19309999999999999</v>
+        <v>0.2114</v>
       </c>
       <c r="AI34" s="7">
-        <v>0.73319999999999996</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="AJ34" s="7">
-        <v>6.8500000000000005E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="AK34" s="7">
-        <v>0.84750000000000003</v>
-      </c>
-      <c r="AL34" s="8">
-        <v>6.88E-2</v>
-      </c>
-      <c r="AM34" s="7">
-        <v>0.88029999999999997</v>
-      </c>
-      <c r="AN34" s="7">
-        <v>9.5299999999999996E-2</v>
-      </c>
-      <c r="AO34" s="7">
-        <v>0.75080000000000002</v>
-      </c>
-      <c r="AP34" s="7">
-        <v>0.2114</v>
-      </c>
-      <c r="AQ34" s="7">
-        <v>0.84219999999999995</v>
-      </c>
-      <c r="AR34" s="7">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="AS34" s="7">
         <v>0.87390000000000001</v>
       </c>
-      <c r="AT34" s="7">
+      <c r="AL34" s="7">
         <v>0.1196</v>
       </c>
     </row>
-    <row r="35" spans="1:46" ht="15.75" thickBot="1">
+    <row r="35" spans="1:38" ht="15.75" thickBot="1">
       <c r="A35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="73">
+      <c r="C35" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="38">
         <v>1</v>
       </c>
       <c r="E35" s="7">
@@ -5265,7 +4930,7 @@
       <c r="G35" s="8">
         <v>0.97299999999999998</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="19">
         <v>6</v>
       </c>
       <c r="I35" s="7">
@@ -5290,121 +4955,82 @@
         <v>0.99829999999999997</v>
       </c>
       <c r="P35" s="7">
-        <v>8.6E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="Q35" s="7">
-        <v>0.36520000000000002</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="R35" s="7">
-        <v>4.4299999999999999E-2</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="S35" s="7">
-        <v>0.65539999999999998</v>
+        <v>0.66190000000000004</v>
       </c>
       <c r="T35" s="7">
-        <v>1.9699999999999999E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="U35" s="7">
-        <v>0.73329999999999995</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="V35" s="8">
-        <v>9.5100000000000004E-2</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="W35" s="7">
-        <v>0.99829999999999997</v>
+        <v>0.9929</v>
       </c>
       <c r="X35" s="7">
-        <v>6.4000000000000003E-3</v>
+        <v>1.95E-2</v>
       </c>
       <c r="Y35" s="7">
-        <v>0.36509999999999998</v>
+        <v>0.34889999999999999</v>
       </c>
       <c r="Z35" s="7">
-        <v>6.4399999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AA35" s="7">
-        <v>0.66190000000000004</v>
+        <v>0.66139999999999999</v>
       </c>
       <c r="AB35" s="7">
-        <v>3.7699999999999997E-2</v>
+        <v>2.7699999999999999E-2</v>
       </c>
       <c r="AC35" s="7">
-        <v>0.76200000000000001</v>
+        <v>0.79510000000000003</v>
       </c>
       <c r="AD35" s="8">
-        <v>9.4200000000000006E-2</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="AE35" s="7">
-        <v>0.9929</v>
+        <v>0.93210000000000004</v>
       </c>
       <c r="AF35" s="7">
-        <v>1.95E-2</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="AG35" s="7">
-        <v>0.34889999999999999</v>
+        <v>0.2989</v>
       </c>
       <c r="AH35" s="7">
-        <v>5.3999999999999999E-2</v>
+        <v>0.1076</v>
       </c>
       <c r="AI35" s="7">
-        <v>0.66139999999999999</v>
+        <v>0.66679999999999995</v>
       </c>
       <c r="AJ35" s="7">
-        <v>2.7699999999999999E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="AK35" s="7">
-        <v>0.79510000000000003</v>
-      </c>
-      <c r="AL35" s="8">
-        <v>6.9800000000000001E-2</v>
-      </c>
-      <c r="AM35" s="7">
-        <v>0.93210000000000004</v>
-      </c>
-      <c r="AN35" s="7">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="AO35" s="7">
-        <v>0.2989</v>
-      </c>
-      <c r="AP35" s="7">
-        <v>0.1076</v>
-      </c>
-      <c r="AQ35" s="7">
-        <v>0.66679999999999995</v>
-      </c>
-      <c r="AR35" s="7">
-        <v>4.19E-2</v>
-      </c>
-      <c r="AS35" s="7">
         <v>0.80910000000000004</v>
       </c>
-      <c r="AT35" s="7">
+      <c r="AL35" s="7">
         <v>7.7100000000000002E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
+  <mergeCells count="30">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="O1:V1"/>
     <mergeCell ref="W1:AD1"/>
     <mergeCell ref="AE1:AL1"/>
-    <mergeCell ref="AM1:AT1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -5416,10 +5042,20 @@
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:V1"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
